--- a/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="113">
   <si>
     <t>土地坐落</t>
   </si>
@@ -295,6 +295,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>欣泰石油氣股份有限公司</t>
   </si>
   <si>
@@ -302,6 +311,9 @@
   </si>
   <si>
     <t>• 25,320</t>
+  </si>
+  <si>
+    <t>2012-04-23</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1746,13 +1758,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>85</v>
       </c>
@@ -1771,13 +1783,22 @@
       <c r="G1" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1794,13 +1815,22 @@
       <c r="G2" s="2">
         <v>778540</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>60</v>
@@ -1817,19 +1847,28 @@
       <c r="G3" s="2">
         <v>773350</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -1839,6 +1878,15 @@
       </c>
       <c r="G4" s="2">
         <v>253200</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2">
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -1856,13 +1904,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1870,10 +1918,10 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -1884,10 +1932,10 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>60</v>
@@ -1908,22 +1956,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1934,19 +1982,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="115">
   <si>
     <t>土地坐落</t>
   </si>
@@ -295,6 +295,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -307,10 +310,13 @@
     <t>欣泰石油氣股份有限公司</t>
   </si>
   <si>
-    <t>晨星半導體股份有限公司 (開曼)</t>
-  </si>
-  <si>
-    <t>• 25,320</t>
+    <t>晨星半導體股份有限公司(開曼)</t>
+  </si>
+  <si>
+    <t>•25320</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-23</t>
@@ -1758,13 +1764,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>85</v>
       </c>
@@ -1792,13 +1798,16 @@
       <c r="J1" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1816,21 +1825,24 @@
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2">
+        <v>99</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
         <v>898</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>60</v>
@@ -1848,27 +1860,30 @@
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2">
+        <v>99</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
         <v>898</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -1880,12 +1895,15 @@
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2">
+        <v>99</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
         <v>898</v>
       </c>
     </row>
@@ -1904,13 +1922,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1918,10 +1936,10 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -1932,10 +1950,10 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>60</v>
@@ -1956,22 +1974,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1982,19 +2000,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="120">
   <si>
     <t>土地坐落</t>
   </si>
@@ -298,6 +298,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -307,19 +310,31 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>欣泰石油氣股份有限公司</t>
   </si>
   <si>
     <t>晨星半導體股份有限公司(開曼)</t>
   </si>
   <si>
-    <t>•25320</t>
+    <t>25320</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-23</t>
+  </si>
+  <si>
+    <t>tmp651e1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1764,13 +1779,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>85</v>
       </c>
@@ -1801,13 +1816,22 @@
       <c r="K1" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1825,24 +1849,33 @@
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2">
+        <v>103</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
         <v>898</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>60</v>
@@ -1860,30 +1893,39 @@
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2">
+        <v>103</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
         <v>898</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -1895,16 +1937,25 @@
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="2">
+        <v>103</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
         <v>898</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="2">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1922,13 +1973,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1936,10 +1987,10 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -1950,10 +2001,10 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>60</v>
@@ -1974,22 +2025,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2000,19 +2051,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
@@ -20,18 +20,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="120">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="121">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段二小段05830000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段二小段05830001地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段二小段05830002地號</t>
+  </si>
+  <si>
+    <t>新北市泰山區黎明段05110000地號</t>
+  </si>
+  <si>
+    <t>新北市泰山區黎明段05110001地號</t>
+  </si>
+  <si>
+    <t>新北市泰山區黎明段05110002地號</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段00140000地號</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段02250000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段fi小段01910000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段五小段04250003地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段五小段04250008地號</t>
+  </si>
+  <si>
+    <t>10000分之59</t>
+  </si>
+  <si>
+    <t>10000分之129</t>
+  </si>
+  <si>
+    <t>10000分之252</t>
+  </si>
+  <si>
+    <t>10000分之89</t>
+  </si>
+  <si>
+    <t>10000分之105</t>
+  </si>
+  <si>
+    <t>100000分之226</t>
+  </si>
+  <si>
+    <t>10分之1</t>
+  </si>
+  <si>
+    <t>李鴻鈞</t>
+  </si>
+  <si>
+    <t>89年07月24日</t>
+  </si>
+  <si>
+    <t>82年05月26日</t>
+  </si>
+  <si>
+    <t>96年04月17日</t>
+  </si>
+  <si>
+    <t>97年02月12H</t>
+  </si>
+  <si>
+    <t>98年02月03日</t>
+  </si>
+  <si>
+    <t>98年05月22日</t>
+  </si>
+  <si>
+    <t>98年05月22H</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-23</t>
+  </si>
+  <si>
+    <t>tmp651e1</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段二小段01938000建號（（陽台10.55平方公尺花台4.78平方公尺））</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段二小段01928000建號</t>
+  </si>
+  <si>
+    <t>新北市泰山區黎明段00621000建號（（陽台13.44平方公尺花台0.70平方公尺））</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04004000建號((含停車位編號104號)）</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04017000建號((含停車位編號103號)）</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04001000建號（(含停車位編號128號及陽台7.94平方公尺)）</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04014000建號((含停車位編號129號及陽台10.03平方公尺））</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段02913000建號(（含停車位2位編號41.42號)）</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段五小段02409000建號</t>
+  </si>
+  <si>
+    <t>56分之1</t>
+  </si>
+  <si>
+    <t>96年04月17H</t>
+  </si>
+  <si>
+    <t>97年02月12曰</t>
+  </si>
+  <si>
+    <t>97年02月12闩</t>
+  </si>
+  <si>
+    <t>98年02月04日</t>
+  </si>
+  <si>
+    <t>101年03月07日</t>
+  </si>
+  <si>
+    <t>貿賣</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
+    <t>31911000(營建費用）</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -43,172 +235,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市中正區中正段二小段 0583-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段二小段 0583-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段二小段 0583-0002 地號</t>
-  </si>
-  <si>
-    <t>新北市泰山區黎明段0511-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市泰山區黎明段0511-0001 地號</t>
-  </si>
-  <si>
-    <t>新北市泰山區黎明段0511 -0002 地號</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段0014-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段0225-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段fi小段 0191-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段五小段 0425-0003 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段五小段 0425-0008 地號</t>
-  </si>
-  <si>
-    <t>10000分之 59</t>
-  </si>
-  <si>
-    <t>10000分之 129</t>
-  </si>
-  <si>
-    <t>10000分之 252</t>
-  </si>
-  <si>
-    <t>10000分之 89</t>
-  </si>
-  <si>
-    <t>10000分之 105</t>
-  </si>
-  <si>
-    <t>100000 分 之226</t>
-  </si>
-  <si>
-    <t>10分之1</t>
-  </si>
-  <si>
-    <t>李鴻鈞</t>
-  </si>
-  <si>
-    <t>89年07月 24日</t>
-  </si>
-  <si>
-    <t>82年05月 26日</t>
-  </si>
-  <si>
-    <t>96年04月 17日</t>
-  </si>
-  <si>
-    <t>97年02月 12 H</t>
-  </si>
-  <si>
-    <t>98年02月 03日</t>
-  </si>
-  <si>
-    <t>98年05月 22日</t>
-  </si>
-  <si>
-    <t>98年05月 22 H</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段二小段01938-000建號（（陽台10.55平方公尺花台4.78平方公尺））</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>89年07月24日</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段二小段 01928-000 建號</t>
-  </si>
-  <si>
-    <t>新北市泰山區黎明段00621 -000 建號（（陽台13.44平方公尺花 台0.70平方公尺））</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04004 - 000 建號((含停車位編號104號)）</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04017-000 建號((含停車位編號103號)）</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04001 -000 建號（(含停車位編號128號及 陽台7.94平方公尺)）</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04014-000 建號((含停車位編號129號及 陽台10.03平方公尺））</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段02913-000 建號(（含停車位2位編號41.42 號)）</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段五小段 02409-000 建號</t>
-  </si>
-  <si>
-    <t>56分之1</t>
-  </si>
-  <si>
-    <t>96年04月 17 H</t>
-  </si>
-  <si>
-    <t>97年02月 12曰</t>
-  </si>
-  <si>
-    <t>97年02月 12闩</t>
-  </si>
-  <si>
-    <t>98年02月 04日</t>
-  </si>
-  <si>
-    <t>101 年 03 月07日</t>
-  </si>
-  <si>
-    <t>貿賣</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>31,911,000(營 建費用）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>BMW 740LI SEDAN</t>
-  </si>
-  <si>
-    <t>LEXUS ES350</t>
+    <t>BMW740LISEDAN</t>
+  </si>
+  <si>
+    <t>LEXUSES350</t>
   </si>
   <si>
     <t>劉素幸</t>
   </si>
   <si>
-    <t>96年02月 08日</t>
-  </si>
-  <si>
-    <t>97年04月 24 H</t>
+    <t>96年02月08日</t>
+  </si>
+  <si>
+    <t>97年04月24H</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -259,7 +298,7 @@
     <t>赚商業銀行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行敦化分 行</t>
+    <t>國泰世華商業銀行敦化分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -277,12 +316,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -295,27 +328,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>欣泰石油氣股份有限公司</t>
   </si>
   <si>
@@ -328,15 +340,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-23</t>
-  </si>
-  <si>
-    <t>tmp651e1</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -349,7 +352,7 @@
     <t>安泰人壽</t>
   </si>
   <si>
-    <t>靈活理財變額保險乙型(投資 型保險）</t>
+    <t>靈活理財變額保險乙型(投資型保險）</t>
   </si>
   <si>
     <t>投資人</t>
@@ -376,7 +379,7 @@
     <t>新北市泰林路二段47號</t>
   </si>
   <si>
-    <t>86年01月 27日</t>
+    <t>86年01月27日</t>
   </si>
   <si>
     <t>原始股東</t>
@@ -738,13 +741,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,317 +769,590 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2023</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>898</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>402</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>898</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>898</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1904.77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>898</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>21.21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>898</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>22.2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
+        <v>898</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>4863.81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2">
         <v>16960000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2">
+        <v>898</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>4863.81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2">
         <v>9390000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2">
+        <v>898</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>13558.99</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2">
         <v>11520000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2">
+        <v>898</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>796</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2">
         <v>50565900</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2">
+        <v>898</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2">
         <v>1207500</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2">
+        <v>898</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>168</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2">
         <v>10672200</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2">
+        <v>898</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1094,25 +1370,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1">
         <v>87.2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1120,25 +1396,25 @@
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>2132.23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1146,25 +1422,25 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
         <v>102.19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1172,22 +1448,22 @@
         <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
         <v>75.84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2">
         <v>3570000</v>
@@ -1198,22 +1474,22 @@
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2">
         <v>77.52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2">
         <v>3680000</v>
@@ -1224,22 +1500,22 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2">
         <v>92.66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2">
         <v>2160000</v>
@@ -1250,22 +1526,22 @@
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>77.61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
         <v>1870000</v>
@@ -1276,22 +1552,22 @@
         <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2">
         <v>145.47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2">
         <v>10480000</v>
@@ -1302,25 +1578,25 @@
         <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2">
         <v>213.84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1338,22 +1614,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1361,19 +1637,19 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2">
         <v>4000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>4200000</v>
@@ -1384,19 +1660,19 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2">
         <v>3456</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>2050000</v>
@@ -1417,19 +1693,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1437,16 +1713,16 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2">
         <v>870546</v>
@@ -1457,16 +1733,16 @@
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2">
         <v>8016673</v>
@@ -1477,16 +1753,16 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
         <v>62120</v>
@@ -1497,16 +1773,16 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
         <v>134078</v>
@@ -1517,16 +1793,16 @@
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>1889392</v>
@@ -1537,16 +1813,16 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>4025</v>
@@ -1557,16 +1833,16 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
         <v>293625</v>
@@ -1577,16 +1853,16 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
         <v>1167679</v>
@@ -1597,16 +1873,16 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2">
         <v>624615</v>
@@ -1617,16 +1893,16 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2">
         <v>1906</v>
@@ -1637,16 +1913,16 @@
         <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
         <v>218805</v>
@@ -1657,16 +1933,16 @@
         <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2">
         <v>308945</v>
@@ -1677,16 +1953,16 @@
         <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F14" s="2">
         <v>482345</v>
@@ -1697,16 +1973,16 @@
         <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2">
         <v>1079</v>
@@ -1717,16 +1993,16 @@
         <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2">
         <v>9445</v>
@@ -1737,16 +2013,16 @@
         <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2">
         <v>64313</v>
@@ -1757,16 +2033,16 @@
         <v>86</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2">
         <v>231873</v>
@@ -1787,43 +2063,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1831,10 +2107,10 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>77854</v>
@@ -1843,28 +2119,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2">
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2">
         <v>898</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2">
         <v>93</v>
@@ -1875,10 +2151,10 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2">
         <v>77335</v>
@@ -1887,28 +2163,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2">
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2">
         <v>898</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="N3" s="2">
         <v>94</v>
@@ -1919,40 +2195,40 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2">
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2">
         <v>898</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="N4" s="2">
         <v>95</v>
@@ -1973,13 +2249,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1987,13 +2263,13 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2001,13 +2277,13 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2025,22 +2301,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2048,22 +2324,22 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市中正區中正段二小段05830000地號</t>
+  </si>
+  <si>
     <t>臺北市中正區中正段二小段05830001地號</t>
   </si>
   <si>
@@ -166,28 +169,28 @@
     <t>臺北市中正區中正段二小段01928000建號</t>
   </si>
   <si>
+    <t>新北市泰山區黎明段00621000建號（（陽台13.44平方公尺花台0.70平方公尺））</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04004000建號((含停車位編號104號)）</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04017000建號((含停車位編號103號)）</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04001000建號（(含停車位編號128號及陽台7.94平方公尺)）</t>
+  </si>
+  <si>
+    <t>新北市泰山區同興段04014000建號((含停車位編號129號及陽台10.03平方公尺））</t>
+  </si>
+  <si>
+    <t>新北市淡水區海天段02913000建號(（含停車位2位編號41.42號)）</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段五小段02409000建號</t>
+  </si>
+  <si>
     <t>56分之1</t>
-  </si>
-  <si>
-    <t>新北市泰山區黎明段00621000建號（（陽台13.44平方公尺花台0.70平方公尺））</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04004000建號((含停車位編號104號)）</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04017000建號((含停車位編號103號)）</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04001000建號（(含停車位編號128號及陽台7.94平方公尺)）</t>
-  </si>
-  <si>
-    <t>新北市泰山區同興段04014000建號((含停車位編號129號及陽台10.03平方公尺））</t>
-  </si>
-  <si>
-    <t>新北市淡水區海天段02913000建號(（含停車位2位編號41.42號)）</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段五小段02409000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -681,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,328 +742,328 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>402</v>
+        <v>2023</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2">
         <v>898</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
         <v>0.0059</v>
       </c>
       <c r="Q2" s="2">
-        <v>2.3718</v>
+        <v>11.9357</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>87</v>
+        <v>402</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="2">
         <v>898</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
         <v>0.0059</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.5133</v>
+        <v>2.3718</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1904.77</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="2">
         <v>898</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0129</v>
+        <v>0.0059</v>
       </c>
       <c r="Q4" s="2">
-        <v>24.571533</v>
+        <v>0.5133</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>21.21</v>
+        <v>1904.77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M5" s="2">
         <v>898</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O5" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0252</v>
+        <v>0.0129</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.534492</v>
+        <v>24.571533</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>22.2</v>
+        <v>21.21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="2">
         <v>898</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O6" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0129</v>
+        <v>0.0252</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.28638</v>
+        <v>0.534492</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>4863.81</v>
+        <v>22.2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2">
-        <v>16960000</v>
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7" s="2">
         <v>898</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O7" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P7" s="2">
-        <v>0.0089</v>
+        <v>0.0129</v>
       </c>
       <c r="Q7" s="2">
-        <v>43.287909</v>
+        <v>0.28638</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>4863.81</v>
@@ -1069,254 +1072,307 @@
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2">
-        <v>9390000</v>
+        <v>16960000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8" s="2">
         <v>898</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O8" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0105</v>
+        <v>0.0089</v>
       </c>
       <c r="Q8" s="2">
-        <v>51.070005</v>
+        <v>43.287909</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>13558.99</v>
+        <v>4863.81</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2">
-        <v>11520000</v>
+        <v>9390000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9" s="2">
         <v>898</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O9" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="2">
-        <v>0.00226</v>
+        <v>0.0105</v>
       </c>
       <c r="Q9" s="2">
-        <v>30.6433174</v>
+        <v>51.070005</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>796</v>
+        <v>13558.99</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="2">
-        <v>50565900</v>
+        <v>11520000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10" s="2">
         <v>898</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O10" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" s="2">
-        <v>0.1</v>
+        <v>0.00226</v>
       </c>
       <c r="Q10" s="2">
-        <v>79.6</v>
+        <v>30.6433174</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>19</v>
+        <v>796</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11" s="2">
-        <v>1207500</v>
+        <v>50565900</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M11" s="2">
         <v>898</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O11" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" s="2">
         <v>0.1</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.9</v>
+        <v>79.6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" s="2">
-        <v>10672200</v>
+        <v>1207500</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12" s="2">
         <v>898</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O12" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P12" s="2">
         <v>0.1</v>
       </c>
       <c r="Q12" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>168</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10672200</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="2">
+        <v>898</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="2">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="2">
         <v>16.8</v>
       </c>
     </row>
@@ -1327,215 +1383,484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2">
         <v>2132.23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2">
-        <v>102.19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2">
+        <v>898</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0178571428571429</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>38.0755357142857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2">
+        <v>102.19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2">
+        <v>898</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="2">
+        <v>38</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>102.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>39</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>75.84</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2">
         <v>3570000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2">
+        <v>898</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2">
+        <v>39</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>75.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>77.52</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3680000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2">
-        <v>92.66</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3680000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2">
+        <v>898</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="2">
+        <v>40</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>77.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>41</v>
       </c>
-      <c r="H5" s="2">
-        <v>2160000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>42</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2">
-        <v>77.61</v>
+        <v>92.66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2160000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2">
+        <v>898</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="2">
         <v>41</v>
       </c>
-      <c r="H6" s="2">
-        <v>1870000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>92.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
-        <v>145.47</v>
+        <v>77.61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2">
-        <v>10480000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1870000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2">
+        <v>898</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="2">
+        <v>42</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>77.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2">
-        <v>213.84</v>
+        <v>145.47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10480000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="2">
+        <v>898</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2">
+        <v>43</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>145.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2">
+        <v>213.84</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2">
+        <v>898</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="2">
+        <v>44</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>213.84</v>
       </c>
     </row>
   </sheetData>
@@ -1544,6 +1869,693 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3456</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2050000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1">
+        <v>870546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2">
+        <v>870546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8016673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2">
+        <v>62120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>134078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1889392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2">
+        <v>293625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>77</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1167679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>78</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="2">
+        <v>624615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>80</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2">
+        <v>218805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>81</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="2">
+        <v>308945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>82</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="2">
+        <v>482345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>83</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>84</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2">
+        <v>64313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>86</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="2">
+        <v>231873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>93</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2">
+        <v>77854</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2">
+        <v>778540</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2">
+        <v>898</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2">
+        <v>77335</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2">
+        <v>773350</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2">
+        <v>898</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2">
+        <v>253200</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2">
+        <v>898</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="2">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>121</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1553,608 +2565,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1">
-        <v>4000</v>
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1">
-        <v>4200000</v>
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3456</v>
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2050000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1">
-        <v>870546</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2">
-        <v>8016673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2">
-        <v>62120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>73</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2">
-        <v>134078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>74</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1889392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>75</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>76</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2">
-        <v>293625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>77</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1167679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>78</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="2">
-        <v>624615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>79</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>80</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2">
-        <v>218805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>81</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="2">
-        <v>308945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>82</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="2">
-        <v>482345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>83</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>84</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="2">
-        <v>9445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>85</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2">
-        <v>64313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>86</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="2">
-        <v>231873</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>94</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2">
-        <v>77335</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="2">
-        <v>773350</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="2">
-        <v>898</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>95</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="2">
-        <v>253200</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="2">
-        <v>898</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="2">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>121</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>100</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -220,16 +220,19 @@
     <t>31911000(營建費用）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>BMW740LISEDAN</t>
   </si>
   <si>
+    <t>LEXUSES350</t>
+  </si>
+  <si>
+    <t>劉素幸</t>
+  </si>
+  <si>
     <t>96年02月08日</t>
-  </si>
-  <si>
-    <t>LEXUSES350</t>
-  </si>
-  <si>
-    <t>劉素幸</t>
   </si>
   <si>
     <t>97年04月24H</t>
@@ -1870,38 +1873,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1">
-        <v>4000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1">
-        <v>4200000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>4000</v>
@@ -1910,7 +1934,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>42</v>
@@ -1918,8 +1942,29 @@
       <c r="G2" s="2">
         <v>4200000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2">
+        <v>898</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>55</v>
       </c>
@@ -1933,13 +1978,34 @@
         <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>2050000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2">
+        <v>898</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1957,13 +2023,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>34</v>
@@ -1977,13 +2043,13 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -1997,13 +2063,13 @@
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -2017,13 +2083,13 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -2037,13 +2103,13 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -2057,13 +2123,13 @@
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -2077,13 +2143,13 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -2097,13 +2163,13 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -2117,13 +2183,13 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -2137,13 +2203,13 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>69</v>
@@ -2157,13 +2223,13 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>69</v>
@@ -2177,13 +2243,13 @@
         <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -2197,13 +2263,13 @@
         <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>69</v>
@@ -2217,13 +2283,13 @@
         <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>69</v>
@@ -2237,13 +2303,13 @@
         <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
@@ -2257,13 +2323,13 @@
         <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>69</v>
@@ -2277,13 +2343,13 @@
         <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
@@ -2297,13 +2363,13 @@
         <v>86</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>69</v>
@@ -2333,13 +2399,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2371,7 +2437,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -2383,13 +2449,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2">
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -2415,7 +2481,7 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>69</v>
@@ -2427,13 +2493,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2">
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>45</v>
@@ -2459,25 +2525,25 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2">
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>45</v>
@@ -2513,10 +2579,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2527,10 +2593,10 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -2541,10 +2607,10 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>69</v>
@@ -2568,19 +2634,19 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2591,19 +2657,19 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -220,6 +220,9 @@
     <t>31911000(營建費用）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
   </si>
   <si>
     <t>97年04月24H</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺北縣泰山鄕農會</t>
@@ -1468,7 +1474,7 @@
         <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>45</v>
@@ -1521,7 +1527,7 @@
         <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>45</v>
@@ -1574,7 +1580,7 @@
         <v>3570000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>45</v>
@@ -1627,7 +1633,7 @@
         <v>3680000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>45</v>
@@ -1680,7 +1686,7 @@
         <v>2160000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>45</v>
@@ -1733,7 +1739,7 @@
         <v>1870000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>45</v>
@@ -1786,7 +1792,7 @@
         <v>10480000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>45</v>
@@ -1839,7 +1845,7 @@
         <v>65</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>45</v>
@@ -1884,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1925,7 +1931,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2">
         <v>4000</v>
@@ -1934,7 +1940,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>42</v>
@@ -1943,7 +1949,7 @@
         <v>4200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -1969,16 +1975,16 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2">
         <v>3456</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>42</v>
@@ -1987,7 +1993,7 @@
         <v>2050000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>45</v>
@@ -2023,13 +2029,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>34</v>
@@ -2043,13 +2049,13 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -2063,13 +2069,13 @@
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -2083,13 +2089,13 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -2103,13 +2109,13 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -2123,13 +2129,13 @@
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -2143,13 +2149,13 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -2163,13 +2169,13 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -2183,13 +2189,13 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -2203,16 +2209,16 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2">
         <v>624615</v>
@@ -2223,16 +2229,16 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2">
         <v>1906</v>
@@ -2243,13 +2249,13 @@
         <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -2263,16 +2269,16 @@
         <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="2">
         <v>308945</v>
@@ -2283,16 +2289,16 @@
         <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2">
         <v>482345</v>
@@ -2303,13 +2309,13 @@
         <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
@@ -2323,16 +2329,16 @@
         <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2">
         <v>9445</v>
@@ -2343,13 +2349,13 @@
         <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
@@ -2363,16 +2369,16 @@
         <v>86</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" s="2">
         <v>231873</v>
@@ -2399,13 +2405,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2437,7 +2443,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -2449,13 +2455,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2">
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -2481,10 +2487,10 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2">
         <v>77335</v>
@@ -2493,13 +2499,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2">
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>45</v>
@@ -2525,25 +2531,25 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2">
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>45</v>
@@ -2579,10 +2585,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2593,10 +2599,10 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -2607,13 +2613,13 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2634,19 +2640,19 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2657,19 +2663,19 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -244,67 +244,76 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺北縣泰山鄕農會</t>
   </si>
   <si>
+    <t>陽信商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>台灣銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>上海商業儲蓄銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>臺北縣泰山鄉農會</t>
+  </si>
+  <si>
+    <t>赚商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行敦化分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期儲當存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>陽信商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>台灣銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>上海商業儲蓄銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>臺北縣泰山鄉農會</t>
-  </si>
-  <si>
-    <t>赚商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行敦化分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期儲當存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>欣泰石油氣股份有限公司</t>
@@ -2021,13 +2030,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
@@ -2038,24 +2047,45 @@
         <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1">
-        <v>870546</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -2063,19 +2093,40 @@
       <c r="F2" s="2">
         <v>870546</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2">
+        <v>898</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -2083,19 +2134,40 @@
       <c r="F3" s="2">
         <v>8016673</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2">
+        <v>898</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -2103,19 +2175,40 @@
       <c r="F4" s="2">
         <v>62120</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2">
+        <v>898</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -2123,19 +2216,40 @@
       <c r="F5" s="2">
         <v>134078</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2">
+        <v>898</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -2143,19 +2257,40 @@
       <c r="F6" s="2">
         <v>1889392</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2">
+        <v>898</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -2163,19 +2298,40 @@
       <c r="F7" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2">
+        <v>898</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -2183,19 +2339,40 @@
       <c r="F8" s="2">
         <v>293625</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2">
+        <v>898</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -2203,19 +2380,40 @@
       <c r="F9" s="2">
         <v>1167679</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2">
+        <v>898</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>70</v>
@@ -2223,19 +2421,40 @@
       <c r="F10" s="2">
         <v>624615</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2">
+        <v>898</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>70</v>
@@ -2243,19 +2462,40 @@
       <c r="F11" s="2">
         <v>1906</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2">
+        <v>898</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -2263,19 +2503,40 @@
       <c r="F12" s="2">
         <v>218805</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="2">
+        <v>898</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>70</v>
@@ -2283,19 +2544,40 @@
       <c r="F13" s="2">
         <v>308945</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="2">
+        <v>898</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>70</v>
@@ -2303,19 +2585,40 @@
       <c r="F14" s="2">
         <v>482345</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="2">
+        <v>898</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
@@ -2323,19 +2626,40 @@
       <c r="F15" s="2">
         <v>1079</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="2">
+        <v>898</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>70</v>
@@ -2343,19 +2667,40 @@
       <c r="F16" s="2">
         <v>9445</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="2">
+        <v>898</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
@@ -2363,25 +2708,67 @@
       <c r="F17" s="2">
         <v>64313</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="2">
+        <v>898</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>86</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F18" s="2">
         <v>231873</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="2">
+        <v>898</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="2">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2405,13 +2792,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2443,7 +2830,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -2455,13 +2842,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2">
         <v>778540</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -2487,7 +2874,7 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>70</v>
@@ -2499,13 +2886,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2">
         <v>773350</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>45</v>
@@ -2531,25 +2918,25 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2">
         <v>253200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>45</v>
@@ -2585,10 +2972,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2599,10 +2986,10 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -2613,10 +3000,10 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>70</v>
@@ -2640,19 +3027,19 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2663,19 +3050,19 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -328,12 +328,21 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>安泰人壽</t>
   </si>
   <si>
     <t>靈活理財變額保險乙型(投資型保險）</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>永錡加油站股份有限公司</t>
   </si>
   <si>
@@ -344,6 +353,9 @@
   </si>
   <si>
     <t>原始股東</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2964,49 +2976,112 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2">
+        <v>898</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2">
+        <v>898</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3016,33 +3091,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2000000</v>
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>140</v>
       </c>
@@ -3050,19 +3146,40 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2">
+        <v>898</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
+++ b/legislator/property/output/normal/李鴻鈞_2012-04-23_財產申報表_tmp651e1.xlsx
@@ -13,14 +13,15 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -338,6 +339,12 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>address</t>
@@ -3091,6 +3098,60 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3105,7 +3166,7 @@
         <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -3146,22 +3207,22 @@
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
